--- a/宝德龙医疗康复三代数据库设计表V4.0.xlsx
+++ b/宝德龙医疗康复三代数据库设计表V4.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的文件\宝德龙\project\BdlMedicalRecovery3.0\spms_desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2590A954-954F-4A77-BB7F-86CD8A6504FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E83FBA9-14E9-4291-AD14-DD63C37F2A62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E3239B6-493E-4459-8425-D6FC26C2F616}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="144">
   <si>
     <t>序号</t>
   </si>
@@ -569,6 +569,10 @@
   </si>
   <si>
     <t>V4.0删除处方表 sport_mode，dp_timecount，dp_target_num字段，增加组数，每组个数，休息时间，前方限制，后方限制字段。删除处方结果表运动模式，finish_time字段，增加使用感想字段。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V4.0新增以下5个字段</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -759,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -814,6 +818,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -823,50 +863,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1184,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F6FB2E-E2EF-433F-827B-0F48AB9B42AF}">
   <dimension ref="A2:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1200,13 +1207,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
       <c r="F2" s="12" t="s">
         <v>117</v>
       </c>
@@ -1227,7 +1234,7 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="18" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1280,72 +1287,72 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25" t="s">
+    <row r="7" spans="1:6" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25" t="s">
+    <row r="8" spans="1:6" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25" t="s">
+    <row r="9" spans="1:6" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="10" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1392,19 +1399,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="30" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28" t="s">
+    <row r="14" spans="1:6" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="23" t="s">
         <v>135</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1569,13 +1579,13 @@
       <c r="E25" s="16"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -1660,38 +1670,38 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22" t="s">
+    <row r="33" spans="1:6" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="36" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+    <row r="34" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>7</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1772,23 +1782,23 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="31">
+    <row r="40" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="25">
         <v>15</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="33" t="s">
+      <c r="F40" s="27" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1896,13 +1906,13 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="32"/>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
@@ -1959,13 +1969,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="32"/>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
@@ -2166,13 +2176,13 @@
       <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="35">
+      <c r="B4" s="29">
         <v>43694</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="28" t="s">
         <v>142</v>
       </c>
     </row>

--- a/宝德龙医疗康复三代数据库设计表V4.0.xlsx
+++ b/宝德龙医疗康复三代数据库设计表V4.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的文件\宝德龙\project\BdlMedicalRecovery3.0\spms_desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\我的文件\宝德龙\project\bdlmedicalrecovery3.0\spms_desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E83FBA9-14E9-4291-AD14-DD63C37F2A62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634A3E33-7B8D-486C-A767-4DF6768624AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9E3239B6-493E-4459-8425-D6FC26C2F616}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="134">
   <si>
     <t>序号</t>
   </si>
@@ -178,14 +178,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dp_timecount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标运动时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修改时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -218,10 +210,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0：计数模式，1：计时模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>单车跑步机设置用冗余字段</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -250,14 +238,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sport_mode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户运动模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>…</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -294,18 +274,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>finish_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成运动时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计时模式运动时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>power</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -404,10 +372,6 @@
     <t>bind_id</t>
   </si>
   <si>
-    <t>计时模式目标时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>double</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -552,18 +516,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>V4.0删除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dp_target_num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计数模式目标个数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>V4.0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -573,6 +525,14 @@
   </si>
   <si>
     <t>V4.0新增以下5个字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V4.0删除了sport_mode,finish_time字段，增加病人感想字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +600,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,18 +609,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -681,19 +635,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -763,7 +704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,10 +717,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -815,65 +756,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1189,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F6FB2E-E2EF-433F-827B-0F48AB9B42AF}">
-  <dimension ref="A2:F64"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1206,16 +1120,21 @@
     <col min="7" max="7" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
+      <c r="A2" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1234,8 +1153,8 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>137</v>
+      <c r="F3" s="27" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1287,837 +1206,750 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="1:6" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
+    </row>
+    <row r="11" spans="1:6" s="20" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>6</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="24" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="D30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>8</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="B31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>9</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>10</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>15</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-    </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>4</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
-        <v>6</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="36" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>7</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D34" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="A38" s="1">
+        <v>16</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>19</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25">
-        <v>15</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>14</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>16</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="A43" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+      <c r="B46" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="E46" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>19</v>
-      </c>
-      <c r="B45" s="5" t="s">
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="26"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>20</v>
-      </c>
-      <c r="B46" s="2" t="s">
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="D57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="32"/>
-    </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="32"/>
-    </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
-      <c r="B62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-    </row>
-    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A49:E49"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2143,47 +1975,47 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B3" s="14">
         <v>43689</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D3" s="13"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="29">
+      <c r="A4" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="22">
         <v>43694</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>142</v>
+      <c r="C4" s="21" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
